--- a/DokkanKits/19.xlsx
+++ b/DokkanKits/19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD86431E-2688-49CE-9831-B5D0B8C2034C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA91FF97-C2B9-4DCD-9098-D68CA77FD809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="2535" windowWidth="15000" windowHeight="14153" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="638" windowWidth="11415" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1305,7 +1305,7 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
